--- a/src/components/bulk-imports/xlsx-test/structures.xlsx
+++ b/src/components/bulk-imports/xlsx-test/structures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
   <si>
     <t xml:space="preserve">Nom usuel en français</t>
   </si>
@@ -622,7 +622,7 @@
   <dimension ref="A1:AL97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF1" activeCellId="0" sqref="AF1"/>
+      <selection pane="topLeft" activeCell="AF13" activeCellId="0" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1062,9 +1062,6 @@
       <c r="AE6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AG6" s="6" t="s">
         <v>94</v>
       </c>
@@ -1114,9 +1111,6 @@
       <c r="AE7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AG7" s="6" t="s">
         <v>104</v>
       </c>
@@ -1165,9 +1159,6 @@
       <c r="AE8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AG8" s="3" t="s">
         <v>113</v>
       </c>
@@ -1213,9 +1204,6 @@
       <c r="AE9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AG9" s="3" t="s">
         <v>121</v>
       </c>
@@ -1283,9 +1271,6 @@
       </c>
       <c r="AE10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AG10" s="3" t="s">
         <v>133</v>
